--- a/src/assets/samplefiles/superviserList .xlsx
+++ b/src/assets/samplefiles/superviserList .xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>email</t>
   </si>
@@ -35,22 +35,10 @@
     <t>name</t>
   </si>
   <si>
-    <t>vishgore1234@gmail.com</t>
+    <t>Test Vijay VRM RM</t>
   </si>
   <si>
-    <t>rohinigaikwad@sumagoinfotech.in</t>
-  </si>
-  <si>
-    <t>rohinisumago@gmail.com</t>
-  </si>
-  <si>
-    <t>SuperViser 4</t>
-  </si>
-  <si>
-    <t>SuperViser 5</t>
-  </si>
-  <si>
-    <t>SuperViser 6</t>
+    <t>vijay.yatakula@icicibank.com</t>
   </si>
 </sst>
 </file>
@@ -381,8 +369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,43 +393,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>7412589631</v>
+        <v>8328274309</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>8956232356</v>
-      </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>8956895689</v>
-      </c>
+      <c r="B4" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3:B4" r:id="rId2" display="vishgore1234@gmail.com"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="B4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
